--- a/wi-properties.xlsx
+++ b/wi-properties.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="92">
   <si>
     <t>class</t>
   </si>
@@ -87,9 +87,6 @@
     <t>wellName</t>
   </si>
   <si>
-    <t>function</t>
-  </si>
-  <si>
     <t>Properties</t>
   </si>
   <si>
@@ -114,9 +111,6 @@
     <t>compatiableList</t>
   </si>
   <si>
-    <t>unknown</t>
-  </si>
-  <si>
     <t>longList</t>
   </si>
   <si>
@@ -156,9 +150,6 @@
     <t>Compatiable List</t>
   </si>
   <si>
-    <t>Unknown</t>
-  </si>
-  <si>
     <t>Long list</t>
   </si>
   <si>
@@ -183,13 +174,124 @@
     <t>Value</t>
   </si>
   <si>
-    <t>select</t>
-  </si>
-  <si>
     <t>curve</t>
   </si>
   <si>
     <t>wifamily</t>
+  </si>
+  <si>
+    <t>logtrack</t>
+  </si>
+  <si>
+    <t>showTitle</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>topJustification</t>
+  </si>
+  <si>
+    <t>showLabels</t>
+  </si>
+  <si>
+    <t>showValueGrid</t>
+  </si>
+  <si>
+    <t>showDepthGrid</t>
+  </si>
+  <si>
+    <t>majorTicks</t>
+  </si>
+  <si>
+    <t>minorTicks</t>
+  </si>
+  <si>
+    <t>width</t>
+  </si>
+  <si>
+    <t>color</t>
+  </si>
+  <si>
+    <t>showEndDepth</t>
+  </si>
+  <si>
+    <t>displayType</t>
+  </si>
+  <si>
+    <t>zoomFactor</t>
+  </si>
+  <si>
+    <t>idZoneSet</t>
+  </si>
+  <si>
+    <t>showZoneSet</t>
+  </si>
+  <si>
+    <t>Header</t>
+  </si>
+  <si>
+    <t>Label</t>
+  </si>
+  <si>
+    <t>Grid</t>
+  </si>
+  <si>
+    <t>Geometry</t>
+  </si>
+  <si>
+    <t>Color</t>
+  </si>
+  <si>
+    <t xml:space="preserve">notuse </t>
+  </si>
+  <si>
+    <t>wicolor</t>
+  </si>
+  <si>
+    <t>checkbox</t>
+  </si>
+  <si>
+    <t>Show Title</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Justification</t>
+  </si>
+  <si>
+    <t>Show Label</t>
+  </si>
+  <si>
+    <t>Show Value Grid</t>
+  </si>
+  <si>
+    <t>Show Depth Grid</t>
+  </si>
+  <si>
+    <t>Major Ticks</t>
+  </si>
+  <si>
+    <t>Minor Ticks</t>
+  </si>
+  <si>
+    <t>Width</t>
+  </si>
+  <si>
+    <t>Zoom Factor</t>
+  </si>
+  <si>
+    <t>ZoneSet</t>
+  </si>
+  <si>
+    <t>Zonation</t>
+  </si>
+  <si>
+    <t>wizoneset</t>
+  </si>
+  <si>
+    <t>wicompatiable</t>
   </si>
 </sst>
 </file>
@@ -535,20 +637,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:F39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -567,11 +670,8 @@
       <c r="F1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -588,7 +688,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -605,7 +705,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -622,7 +722,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -639,7 +739,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>1</v>
       </c>
@@ -656,7 +756,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -670,10 +770,10 @@
         <v>15</v>
       </c>
       <c r="E7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -681,24 +781,24 @@
         <v>1</v>
       </c>
       <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B9" t="s">
         <v>25</v>
       </c>
-      <c r="D8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>56</v>
-      </c>
-      <c r="B9" t="s">
-        <v>26</v>
-      </c>
       <c r="C9" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D9" t="s">
         <v>16</v>
@@ -707,15 +807,15 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D10" t="s">
         <v>16</v>
@@ -724,15 +824,15 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C11" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D11" t="s">
         <v>16</v>
@@ -741,15 +841,15 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B12" t="s">
         <v>21</v>
       </c>
       <c r="C12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D12" t="s">
         <v>16</v>
@@ -758,15 +858,15 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C13" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D13" t="s">
         <v>16</v>
@@ -775,15 +875,15 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C14" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D14" t="s">
         <v>16</v>
@@ -792,9 +892,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B15" t="s">
         <v>6</v>
@@ -809,9 +909,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B16" t="s">
         <v>7</v>
@@ -828,13 +928,13 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C17" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D17" t="s">
         <v>15</v>
@@ -843,21 +943,21 @@
         <v>19</v>
       </c>
       <c r="F17" t="s">
-        <v>55</v>
+        <v>91</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C18" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D18" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E18" t="s">
         <v>19</v>
@@ -865,50 +965,50 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C19" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D19" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E19" t="s">
         <v>19</v>
       </c>
+      <c r="F19" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C20" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D20" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E20" t="s">
         <v>19</v>
       </c>
-      <c r="F20" t="s">
-        <v>57</v>
-      </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B21" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="C21" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D21" t="s">
         <v>16</v>
@@ -919,70 +1019,308 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B22" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="C22" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D22" t="s">
         <v>16</v>
       </c>
       <c r="E22" t="s">
-        <v>19</v>
+        <v>51</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C23" t="s">
+        <v>49</v>
+      </c>
+      <c r="D23" t="s">
+        <v>16</v>
+      </c>
+      <c r="E23" t="s">
         <v>51</v>
-      </c>
-      <c r="D23" t="s">
-        <v>16</v>
-      </c>
-      <c r="E23" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C24" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D24" t="s">
         <v>16</v>
       </c>
       <c r="E24" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>54</v>
+      </c>
+      <c r="B25" t="s">
+        <v>55</v>
+      </c>
+      <c r="C25" t="s">
+        <v>78</v>
+      </c>
+      <c r="D25" t="s">
+        <v>15</v>
+      </c>
+      <c r="E25" t="s">
+        <v>70</v>
+      </c>
+      <c r="F25" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>54</v>
+      </c>
+      <c r="B26" t="s">
         <v>56</v>
       </c>
-      <c r="B25" t="s">
-        <v>38</v>
-      </c>
-      <c r="C25" t="s">
-        <v>53</v>
-      </c>
-      <c r="D25" t="s">
-        <v>16</v>
-      </c>
-      <c r="E25" t="s">
-        <v>54</v>
+      <c r="C26" t="s">
+        <v>79</v>
+      </c>
+      <c r="D26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E26" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>54</v>
+      </c>
+      <c r="B27" t="s">
+        <v>57</v>
+      </c>
+      <c r="C27" t="s">
+        <v>80</v>
+      </c>
+      <c r="D27" t="s">
+        <v>15</v>
+      </c>
+      <c r="E27" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>54</v>
+      </c>
+      <c r="B28" t="s">
+        <v>58</v>
+      </c>
+      <c r="C28" t="s">
+        <v>81</v>
+      </c>
+      <c r="D28" t="s">
+        <v>15</v>
+      </c>
+      <c r="E28" t="s">
+        <v>71</v>
+      </c>
+      <c r="F28" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>54</v>
+      </c>
+      <c r="B29" t="s">
+        <v>59</v>
+      </c>
+      <c r="C29" t="s">
+        <v>82</v>
+      </c>
+      <c r="D29" t="s">
+        <v>15</v>
+      </c>
+      <c r="E29" t="s">
+        <v>72</v>
+      </c>
+      <c r="F29" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>54</v>
+      </c>
+      <c r="B30" t="s">
+        <v>60</v>
+      </c>
+      <c r="C30" t="s">
+        <v>83</v>
+      </c>
+      <c r="D30" t="s">
+        <v>15</v>
+      </c>
+      <c r="E30" t="s">
+        <v>72</v>
+      </c>
+      <c r="F30" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>54</v>
+      </c>
+      <c r="B31" t="s">
+        <v>61</v>
+      </c>
+      <c r="C31" t="s">
+        <v>84</v>
+      </c>
+      <c r="D31" t="s">
+        <v>15</v>
+      </c>
+      <c r="E31" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>54</v>
+      </c>
+      <c r="B32" t="s">
+        <v>62</v>
+      </c>
+      <c r="C32" t="s">
+        <v>85</v>
+      </c>
+      <c r="D32" t="s">
+        <v>15</v>
+      </c>
+      <c r="E32" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>54</v>
+      </c>
+      <c r="B33" t="s">
+        <v>63</v>
+      </c>
+      <c r="C33" t="s">
+        <v>86</v>
+      </c>
+      <c r="D33" t="s">
+        <v>15</v>
+      </c>
+      <c r="E33" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>54</v>
+      </c>
+      <c r="B34" t="s">
+        <v>64</v>
+      </c>
+      <c r="C34" t="s">
+        <v>74</v>
+      </c>
+      <c r="D34" t="s">
+        <v>15</v>
+      </c>
+      <c r="E34" t="s">
+        <v>74</v>
+      </c>
+      <c r="F34" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>54</v>
+      </c>
+      <c r="B35" t="s">
+        <v>65</v>
+      </c>
+      <c r="D35" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>54</v>
+      </c>
+      <c r="B36" t="s">
+        <v>66</v>
+      </c>
+      <c r="D36" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>54</v>
+      </c>
+      <c r="B37" t="s">
+        <v>67</v>
+      </c>
+      <c r="C37" t="s">
+        <v>87</v>
+      </c>
+      <c r="D37" t="s">
+        <v>15</v>
+      </c>
+      <c r="E37" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>54</v>
+      </c>
+      <c r="B38" t="s">
+        <v>68</v>
+      </c>
+      <c r="C38" t="s">
+        <v>88</v>
+      </c>
+      <c r="D38" t="s">
+        <v>15</v>
+      </c>
+      <c r="E38" t="s">
+        <v>89</v>
+      </c>
+      <c r="F38" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>54</v>
+      </c>
+      <c r="B39" t="s">
+        <v>69</v>
+      </c>
+      <c r="D39" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>

--- a/wi-properties.xlsx
+++ b/wi-properties.xlsx
@@ -222,9 +222,6 @@
     <t>zoomFactor</t>
   </si>
   <si>
-    <t>idZoneSet</t>
-  </si>
-  <si>
     <t>showZoneSet</t>
   </si>
   <si>
@@ -276,9 +273,6 @@
     <t>Minor Ticks</t>
   </si>
   <si>
-    <t>Width</t>
-  </si>
-  <si>
     <t>Zoom Factor</t>
   </si>
   <si>
@@ -292,6 +286,12 @@
   </si>
   <si>
     <t>wicompatiable</t>
+  </si>
+  <si>
+    <t>zoneSet</t>
+  </si>
+  <si>
+    <t>Width (inchs)</t>
   </si>
 </sst>
 </file>
@@ -639,8 +639,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -943,7 +943,7 @@
         <v>19</v>
       </c>
       <c r="F17" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -1076,16 +1076,16 @@
         <v>55</v>
       </c>
       <c r="C25" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D25" t="s">
         <v>15</v>
       </c>
       <c r="E25" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -1096,13 +1096,13 @@
         <v>56</v>
       </c>
       <c r="C26" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D26" t="s">
         <v>15</v>
       </c>
       <c r="E26" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -1113,13 +1113,13 @@
         <v>57</v>
       </c>
       <c r="C27" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D27" t="s">
         <v>15</v>
       </c>
       <c r="E27" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -1130,16 +1130,16 @@
         <v>58</v>
       </c>
       <c r="C28" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D28" t="s">
         <v>15</v>
       </c>
       <c r="E28" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F28" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -1150,16 +1150,16 @@
         <v>59</v>
       </c>
       <c r="C29" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D29" t="s">
         <v>15</v>
       </c>
       <c r="E29" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F29" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -1170,16 +1170,16 @@
         <v>60</v>
       </c>
       <c r="C30" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D30" t="s">
         <v>15</v>
       </c>
       <c r="E30" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F30" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -1190,13 +1190,13 @@
         <v>61</v>
       </c>
       <c r="C31" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D31" t="s">
         <v>15</v>
       </c>
       <c r="E31" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -1207,13 +1207,13 @@
         <v>62</v>
       </c>
       <c r="C32" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D32" t="s">
         <v>15</v>
       </c>
       <c r="E32" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -1224,13 +1224,13 @@
         <v>63</v>
       </c>
       <c r="C33" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="D33" t="s">
         <v>15</v>
       </c>
       <c r="E33" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -1241,16 +1241,16 @@
         <v>64</v>
       </c>
       <c r="C34" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D34" t="s">
         <v>15</v>
       </c>
       <c r="E34" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F34" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -1261,7 +1261,7 @@
         <v>65</v>
       </c>
       <c r="D35" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -1272,7 +1272,7 @@
         <v>66</v>
       </c>
       <c r="D36" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -1283,13 +1283,13 @@
         <v>67</v>
       </c>
       <c r="C37" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D37" t="s">
         <v>15</v>
       </c>
       <c r="E37" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -1297,19 +1297,19 @@
         <v>54</v>
       </c>
       <c r="B38" t="s">
-        <v>68</v>
+        <v>90</v>
       </c>
       <c r="C38" t="s">
+        <v>86</v>
+      </c>
+      <c r="D38" t="s">
+        <v>15</v>
+      </c>
+      <c r="E38" t="s">
+        <v>87</v>
+      </c>
+      <c r="F38" t="s">
         <v>88</v>
-      </c>
-      <c r="D38" t="s">
-        <v>15</v>
-      </c>
-      <c r="E38" t="s">
-        <v>89</v>
-      </c>
-      <c r="F38" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -1317,10 +1317,10 @@
         <v>54</v>
       </c>
       <c r="B39" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D39" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>

--- a/wi-properties.xlsx
+++ b/wi-properties.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="106">
   <si>
     <t>class</t>
   </si>
@@ -180,9 +180,6 @@
     <t>wifamily</t>
   </si>
   <si>
-    <t>logtrack</t>
-  </si>
-  <si>
     <t>showTitle</t>
   </si>
   <si>
@@ -279,9 +276,6 @@
     <t>ZoneSet</t>
   </si>
   <si>
-    <t>Zonation</t>
-  </si>
-  <si>
     <t>wizoneset</t>
   </si>
   <si>
@@ -292,6 +286,54 @@
   </si>
   <si>
     <t>Width (inchs)</t>
+  </si>
+  <si>
+    <t>zoneset</t>
+  </si>
+  <si>
+    <t>zone</t>
+  </si>
+  <si>
+    <t>showName</t>
+  </si>
+  <si>
+    <t>showOnTrack</t>
+  </si>
+  <si>
+    <t>Show Name</t>
+  </si>
+  <si>
+    <t>Show On Track</t>
+  </si>
+  <si>
+    <t>Options</t>
+  </si>
+  <si>
+    <t>d3-logtrack</t>
+  </si>
+  <si>
+    <t>wiref</t>
+  </si>
+  <si>
+    <t>refSpec</t>
+  </si>
+  <si>
+    <t>well.bottomDepth</t>
+  </si>
+  <si>
+    <t>well.topDepth</t>
+  </si>
+  <si>
+    <t>markerSet</t>
+  </si>
+  <si>
+    <t>MarkerSet</t>
+  </si>
+  <si>
+    <t>Zonation &amp; MarkerSet</t>
+  </si>
+  <si>
+    <t>wimarkerset</t>
   </si>
 </sst>
 </file>
@@ -637,21 +679,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F39"/>
+  <dimension ref="A1:H46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="H40" sqref="H40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -670,8 +714,11 @@
       <c r="F1" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -688,7 +735,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -705,7 +752,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -722,7 +769,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -739,7 +786,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>1</v>
       </c>
@@ -756,7 +803,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -773,7 +820,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -790,7 +837,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>52</v>
       </c>
@@ -806,8 +853,17 @@
       <c r="E9" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F9" t="s">
+        <v>98</v>
+      </c>
+      <c r="G9" t="s">
+        <v>100</v>
+      </c>
+      <c r="H9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>52</v>
       </c>
@@ -823,8 +879,17 @@
       <c r="E10" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F10" t="s">
+        <v>98</v>
+      </c>
+      <c r="G10" t="s">
+        <v>101</v>
+      </c>
+      <c r="H10" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>52</v>
       </c>
@@ -841,7 +906,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>52</v>
       </c>
@@ -858,7 +923,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>52</v>
       </c>
@@ -875,7 +940,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>52</v>
       </c>
@@ -892,7 +957,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>52</v>
       </c>
@@ -909,7 +974,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>52</v>
       </c>
@@ -943,7 +1008,7 @@
         <v>19</v>
       </c>
       <c r="F17" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -1070,257 +1135,385 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>97</v>
+      </c>
+      <c r="B25" t="s">
         <v>54</v>
       </c>
-      <c r="B25" t="s">
-        <v>55</v>
-      </c>
       <c r="C25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D25" t="s">
         <v>15</v>
       </c>
       <c r="E25" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F25" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>54</v>
+        <v>97</v>
       </c>
       <c r="B26" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C26" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D26" t="s">
         <v>15</v>
       </c>
       <c r="E26" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>54</v>
+        <v>97</v>
       </c>
       <c r="B27" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C27" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D27" t="s">
         <v>15</v>
       </c>
       <c r="E27" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>54</v>
+        <v>97</v>
       </c>
       <c r="B28" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C28" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D28" t="s">
         <v>15</v>
       </c>
       <c r="E28" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F28" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>54</v>
+        <v>97</v>
       </c>
       <c r="B29" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C29" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D29" t="s">
         <v>15</v>
       </c>
       <c r="E29" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F29" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>54</v>
+        <v>97</v>
       </c>
       <c r="B30" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C30" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D30" t="s">
         <v>15</v>
       </c>
       <c r="E30" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F30" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>54</v>
+        <v>97</v>
       </c>
       <c r="B31" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C31" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D31" t="s">
         <v>15</v>
       </c>
       <c r="E31" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>54</v>
+        <v>97</v>
       </c>
       <c r="B32" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C32" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D32" t="s">
         <v>15</v>
       </c>
       <c r="E32" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>54</v>
+        <v>97</v>
       </c>
       <c r="B33" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C33" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D33" t="s">
         <v>15</v>
       </c>
       <c r="E33" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>54</v>
+        <v>97</v>
       </c>
       <c r="B34" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C34" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D34" t="s">
         <v>15</v>
       </c>
       <c r="E34" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F34" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>54</v>
+        <v>97</v>
       </c>
       <c r="B35" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D35" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>54</v>
+        <v>97</v>
       </c>
       <c r="B36" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D36" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>54</v>
+        <v>97</v>
       </c>
       <c r="B37" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C37" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D37" t="s">
         <v>15</v>
       </c>
       <c r="E37" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>54</v>
+        <v>97</v>
       </c>
       <c r="B38" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="C38" t="s">
-        <v>86</v>
+        <v>103</v>
       </c>
       <c r="D38" t="s">
         <v>15</v>
       </c>
       <c r="E38" t="s">
-        <v>87</v>
+        <v>104</v>
       </c>
       <c r="F38" t="s">
-        <v>88</v>
+        <v>105</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>54</v>
+        <v>97</v>
       </c>
       <c r="B39" t="s">
+        <v>88</v>
+      </c>
+      <c r="C39" t="s">
+        <v>85</v>
+      </c>
+      <c r="D39" t="s">
+        <v>15</v>
+      </c>
+      <c r="E39" t="s">
+        <v>104</v>
+      </c>
+      <c r="F39" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>97</v>
+      </c>
+      <c r="B40" t="s">
+        <v>67</v>
+      </c>
+      <c r="D40" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>90</v>
+      </c>
+      <c r="B41" t="s">
+        <v>6</v>
+      </c>
+      <c r="C41" t="s">
+        <v>12</v>
+      </c>
+      <c r="D41" t="s">
+        <v>15</v>
+      </c>
+      <c r="E41" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>91</v>
+      </c>
+      <c r="B42" t="s">
+        <v>6</v>
+      </c>
+      <c r="C42" t="s">
+        <v>12</v>
+      </c>
+      <c r="D42" t="s">
+        <v>15</v>
+      </c>
+      <c r="E42" t="s">
         <v>68</v>
       </c>
-      <c r="D39" t="s">
-        <v>74</v>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>91</v>
+      </c>
+      <c r="B43" t="s">
+        <v>25</v>
+      </c>
+      <c r="C43" t="s">
+        <v>37</v>
+      </c>
+      <c r="D43" t="s">
+        <v>16</v>
+      </c>
+      <c r="E43" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>91</v>
+      </c>
+      <c r="B44" t="s">
+        <v>26</v>
+      </c>
+      <c r="C44" t="s">
+        <v>38</v>
+      </c>
+      <c r="D44" t="s">
+        <v>16</v>
+      </c>
+      <c r="E44" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>91</v>
+      </c>
+      <c r="B45" t="s">
+        <v>92</v>
+      </c>
+      <c r="C45" t="s">
+        <v>94</v>
+      </c>
+      <c r="D45" t="s">
+        <v>15</v>
+      </c>
+      <c r="E45" t="s">
+        <v>96</v>
+      </c>
+      <c r="F45" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>91</v>
+      </c>
+      <c r="B46" t="s">
+        <v>93</v>
+      </c>
+      <c r="C46" t="s">
+        <v>95</v>
+      </c>
+      <c r="D46" t="s">
+        <v>15</v>
+      </c>
+      <c r="E46" t="s">
+        <v>96</v>
+      </c>
+      <c r="F46" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>

--- a/wi-properties.xlsx
+++ b/wi-properties.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="120">
   <si>
     <t>class</t>
   </si>
@@ -334,6 +334,48 @@
   </si>
   <si>
     <t>wimarkerset</t>
+  </si>
+  <si>
+    <t>markerset</t>
+  </si>
+  <si>
+    <t>marker</t>
+  </si>
+  <si>
+    <t>depth</t>
+  </si>
+  <si>
+    <t>Depth</t>
+  </si>
+  <si>
+    <t>d3-depthtrack</t>
+  </si>
+  <si>
+    <t>decimals</t>
+  </si>
+  <si>
+    <t>depthType</t>
+  </si>
+  <si>
+    <t>justification</t>
+  </si>
+  <si>
+    <t>unitType</t>
+  </si>
+  <si>
+    <t>Background color</t>
+  </si>
+  <si>
+    <t>Decimals</t>
+  </si>
+  <si>
+    <t>Depth Type</t>
+  </si>
+  <si>
+    <t>Unit Type</t>
+  </si>
+  <si>
+    <t>wiselect</t>
   </si>
 </sst>
 </file>
@@ -679,18 +721,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H46"/>
+  <dimension ref="A1:H58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="H40" sqref="H40"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="G58" sqref="G58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17.7109375" bestFit="1" customWidth="1"/>
   </cols>
@@ -1514,6 +1556,228 @@
       </c>
       <c r="F46" t="s">
         <v>75</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>106</v>
+      </c>
+      <c r="B47" t="s">
+        <v>6</v>
+      </c>
+      <c r="C47" t="s">
+        <v>12</v>
+      </c>
+      <c r="D47" t="s">
+        <v>15</v>
+      </c>
+      <c r="E47" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>107</v>
+      </c>
+      <c r="B48" t="s">
+        <v>6</v>
+      </c>
+      <c r="C48" t="s">
+        <v>12</v>
+      </c>
+      <c r="D48" t="s">
+        <v>15</v>
+      </c>
+      <c r="E48" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>107</v>
+      </c>
+      <c r="B49" t="s">
+        <v>108</v>
+      </c>
+      <c r="C49" t="s">
+        <v>109</v>
+      </c>
+      <c r="D49" t="s">
+        <v>16</v>
+      </c>
+      <c r="E49" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>107</v>
+      </c>
+      <c r="B50" t="s">
+        <v>93</v>
+      </c>
+      <c r="C50" t="s">
+        <v>95</v>
+      </c>
+      <c r="D50" t="s">
+        <v>15</v>
+      </c>
+      <c r="E50" t="s">
+        <v>23</v>
+      </c>
+      <c r="F50" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>110</v>
+      </c>
+      <c r="B51" t="s">
+        <v>55</v>
+      </c>
+      <c r="C51" t="s">
+        <v>77</v>
+      </c>
+      <c r="D51" t="s">
+        <v>15</v>
+      </c>
+      <c r="E51" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>110</v>
+      </c>
+      <c r="B52" t="s">
+        <v>54</v>
+      </c>
+      <c r="C52" t="s">
+        <v>76</v>
+      </c>
+      <c r="D52" t="s">
+        <v>15</v>
+      </c>
+      <c r="E52" t="s">
+        <v>23</v>
+      </c>
+      <c r="F52" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>110</v>
+      </c>
+      <c r="B53" t="s">
+        <v>113</v>
+      </c>
+      <c r="C53" t="s">
+        <v>78</v>
+      </c>
+      <c r="D53" t="s">
+        <v>15</v>
+      </c>
+      <c r="E53" t="s">
+        <v>23</v>
+      </c>
+      <c r="F53" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>110</v>
+      </c>
+      <c r="B54" t="s">
+        <v>63</v>
+      </c>
+      <c r="C54" t="s">
+        <v>115</v>
+      </c>
+      <c r="D54" t="s">
+        <v>15</v>
+      </c>
+      <c r="E54" t="s">
+        <v>23</v>
+      </c>
+      <c r="F54" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>110</v>
+      </c>
+      <c r="B55" t="s">
+        <v>62</v>
+      </c>
+      <c r="C55" t="s">
+        <v>89</v>
+      </c>
+      <c r="D55" t="s">
+        <v>15</v>
+      </c>
+      <c r="E55" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>110</v>
+      </c>
+      <c r="B56" t="s">
+        <v>112</v>
+      </c>
+      <c r="C56" t="s">
+        <v>117</v>
+      </c>
+      <c r="D56" t="s">
+        <v>15</v>
+      </c>
+      <c r="E56" t="s">
+        <v>23</v>
+      </c>
+      <c r="F56" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>110</v>
+      </c>
+      <c r="B57" t="s">
+        <v>114</v>
+      </c>
+      <c r="C57" t="s">
+        <v>118</v>
+      </c>
+      <c r="D57" t="s">
+        <v>15</v>
+      </c>
+      <c r="E57" t="s">
+        <v>23</v>
+      </c>
+      <c r="F57" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>110</v>
+      </c>
+      <c r="B58" t="s">
+        <v>111</v>
+      </c>
+      <c r="C58" t="s">
+        <v>116</v>
+      </c>
+      <c r="D58" t="s">
+        <v>15</v>
+      </c>
+      <c r="E58" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/wi-properties.xlsx
+++ b/wi-properties.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="151">
   <si>
     <t>class</t>
   </si>
@@ -376,6 +376,99 @@
   </si>
   <si>
     <t>wiselect</t>
+  </si>
+  <si>
+    <t>Parameters</t>
+  </si>
+  <si>
+    <t>d3-zonetrack</t>
+  </si>
+  <si>
+    <t>d3-imagetrack</t>
+  </si>
+  <si>
+    <t>background</t>
+  </si>
+  <si>
+    <t>General</t>
+  </si>
+  <si>
+    <t>line</t>
+  </si>
+  <si>
+    <t>showHeader</t>
+  </si>
+  <si>
+    <t>minDepth</t>
+  </si>
+  <si>
+    <t>maxDepth</t>
+  </si>
+  <si>
+    <t>displayAs</t>
+  </si>
+  <si>
+    <t>wrapMode</t>
+  </si>
+  <si>
+    <t>displayMode</t>
+  </si>
+  <si>
+    <t>blockPosition</t>
+  </si>
+  <si>
+    <t>Show Header</t>
+  </si>
+  <si>
+    <t>Left Value</t>
+  </si>
+  <si>
+    <t>Right Value</t>
+  </si>
+  <si>
+    <t>Min Depth</t>
+  </si>
+  <si>
+    <t>Max Depth</t>
+  </si>
+  <si>
+    <t>Display As</t>
+  </si>
+  <si>
+    <t>Wrap Mode</t>
+  </si>
+  <si>
+    <t>Display Mode</t>
+  </si>
+  <si>
+    <t>Display Type</t>
+  </si>
+  <si>
+    <t>Block Position</t>
+  </si>
+  <si>
+    <t>Scales</t>
+  </si>
+  <si>
+    <t>shading</t>
+  </si>
+  <si>
+    <t>leftCurve</t>
+  </si>
+  <si>
+    <t>rightCurve</t>
+  </si>
+  <si>
+    <t>leftFixedValue</t>
+  </si>
+  <si>
+    <t>Curve 1</t>
+  </si>
+  <si>
+    <t>Curve 2</t>
+  </si>
+  <si>
+    <t>Fixed Value</t>
   </si>
 </sst>
 </file>
@@ -721,17 +814,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H58"/>
+  <dimension ref="A1:H87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="G58" sqref="G58"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="F86" sqref="F86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17.7109375" bestFit="1" customWidth="1"/>
@@ -1478,7 +1571,7 @@
         <v>12</v>
       </c>
       <c r="D42" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E42" t="s">
         <v>68</v>
@@ -1572,7 +1665,7 @@
         <v>15</v>
       </c>
       <c r="E47" t="s">
-        <v>23</v>
+        <v>124</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -1589,7 +1682,7 @@
         <v>15</v>
       </c>
       <c r="E48" t="s">
-        <v>23</v>
+        <v>124</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -1606,7 +1699,7 @@
         <v>16</v>
       </c>
       <c r="E49" t="s">
-        <v>23</v>
+        <v>124</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -1623,7 +1716,7 @@
         <v>15</v>
       </c>
       <c r="E50" t="s">
-        <v>23</v>
+        <v>124</v>
       </c>
       <c r="F50" t="s">
         <v>75</v>
@@ -1643,7 +1736,7 @@
         <v>15</v>
       </c>
       <c r="E51" t="s">
-        <v>23</v>
+        <v>124</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -1660,7 +1753,7 @@
         <v>15</v>
       </c>
       <c r="E52" t="s">
-        <v>23</v>
+        <v>124</v>
       </c>
       <c r="F52" t="s">
         <v>75</v>
@@ -1680,7 +1773,7 @@
         <v>15</v>
       </c>
       <c r="E53" t="s">
-        <v>23</v>
+        <v>124</v>
       </c>
       <c r="F53" t="s">
         <v>119</v>
@@ -1700,7 +1793,7 @@
         <v>15</v>
       </c>
       <c r="E54" t="s">
-        <v>23</v>
+        <v>124</v>
       </c>
       <c r="F54" t="s">
         <v>74</v>
@@ -1720,7 +1813,7 @@
         <v>15</v>
       </c>
       <c r="E55" t="s">
-        <v>23</v>
+        <v>124</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
@@ -1737,7 +1830,7 @@
         <v>15</v>
       </c>
       <c r="E56" t="s">
-        <v>23</v>
+        <v>124</v>
       </c>
       <c r="F56" t="s">
         <v>119</v>
@@ -1757,7 +1850,7 @@
         <v>15</v>
       </c>
       <c r="E57" t="s">
-        <v>23</v>
+        <v>124</v>
       </c>
       <c r="F57" t="s">
         <v>119</v>
@@ -1777,7 +1870,527 @@
         <v>15</v>
       </c>
       <c r="E58" t="s">
-        <v>23</v>
+        <v>124</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>121</v>
+      </c>
+      <c r="B59" t="s">
+        <v>54</v>
+      </c>
+      <c r="C59" t="s">
+        <v>76</v>
+      </c>
+      <c r="D59" t="s">
+        <v>15</v>
+      </c>
+      <c r="E59" t="s">
+        <v>68</v>
+      </c>
+      <c r="F59" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>121</v>
+      </c>
+      <c r="B60" t="s">
+        <v>55</v>
+      </c>
+      <c r="C60" t="s">
+        <v>77</v>
+      </c>
+      <c r="D60" t="s">
+        <v>15</v>
+      </c>
+      <c r="E60" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>121</v>
+      </c>
+      <c r="B61" t="s">
+        <v>56</v>
+      </c>
+      <c r="C61" t="s">
+        <v>78</v>
+      </c>
+      <c r="D61" t="s">
+        <v>15</v>
+      </c>
+      <c r="E61" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>121</v>
+      </c>
+      <c r="B62" t="s">
+        <v>63</v>
+      </c>
+      <c r="C62" t="s">
+        <v>115</v>
+      </c>
+      <c r="D62" t="s">
+        <v>15</v>
+      </c>
+      <c r="E62" t="s">
+        <v>72</v>
+      </c>
+      <c r="F62" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>121</v>
+      </c>
+      <c r="B63" t="s">
+        <v>62</v>
+      </c>
+      <c r="C63" t="s">
+        <v>89</v>
+      </c>
+      <c r="D63" t="s">
+        <v>15</v>
+      </c>
+      <c r="E63" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>121</v>
+      </c>
+      <c r="B64" t="s">
+        <v>66</v>
+      </c>
+      <c r="C64" t="s">
+        <v>84</v>
+      </c>
+      <c r="D64" t="s">
+        <v>15</v>
+      </c>
+      <c r="E64" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>121</v>
+      </c>
+      <c r="B65" t="s">
+        <v>1</v>
+      </c>
+      <c r="C65" t="s">
+        <v>24</v>
+      </c>
+      <c r="D65" t="s">
+        <v>15</v>
+      </c>
+      <c r="E65" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>122</v>
+      </c>
+      <c r="B66" t="s">
+        <v>54</v>
+      </c>
+      <c r="C66" t="s">
+        <v>76</v>
+      </c>
+      <c r="D66" t="s">
+        <v>15</v>
+      </c>
+      <c r="E66" t="s">
+        <v>124</v>
+      </c>
+      <c r="F66" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>122</v>
+      </c>
+      <c r="B67" t="s">
+        <v>55</v>
+      </c>
+      <c r="C67" t="s">
+        <v>77</v>
+      </c>
+      <c r="D67" t="s">
+        <v>15</v>
+      </c>
+      <c r="E67" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>122</v>
+      </c>
+      <c r="B68" t="s">
+        <v>56</v>
+      </c>
+      <c r="C68" t="s">
+        <v>78</v>
+      </c>
+      <c r="D68" t="s">
+        <v>15</v>
+      </c>
+      <c r="E68" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>122</v>
+      </c>
+      <c r="B69" t="s">
+        <v>123</v>
+      </c>
+      <c r="C69" t="s">
+        <v>115</v>
+      </c>
+      <c r="D69" t="s">
+        <v>15</v>
+      </c>
+      <c r="E69" t="s">
+        <v>124</v>
+      </c>
+      <c r="F69" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>122</v>
+      </c>
+      <c r="B70" t="s">
+        <v>62</v>
+      </c>
+      <c r="C70" t="s">
+        <v>89</v>
+      </c>
+      <c r="D70" t="s">
+        <v>15</v>
+      </c>
+      <c r="E70" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>122</v>
+      </c>
+      <c r="B71" t="s">
+        <v>66</v>
+      </c>
+      <c r="C71" t="s">
+        <v>84</v>
+      </c>
+      <c r="D71" t="s">
+        <v>15</v>
+      </c>
+      <c r="E71" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>125</v>
+      </c>
+      <c r="B72" t="s">
+        <v>6</v>
+      </c>
+      <c r="C72" t="s">
+        <v>12</v>
+      </c>
+      <c r="D72" t="s">
+        <v>16</v>
+      </c>
+      <c r="E72" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>125</v>
+      </c>
+      <c r="B73" t="s">
+        <v>126</v>
+      </c>
+      <c r="C73" t="s">
+        <v>133</v>
+      </c>
+      <c r="D73" t="s">
+        <v>16</v>
+      </c>
+      <c r="E73" t="s">
+        <v>68</v>
+      </c>
+      <c r="F73" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>125</v>
+      </c>
+      <c r="B74" t="s">
+        <v>36</v>
+      </c>
+      <c r="C74" t="s">
+        <v>134</v>
+      </c>
+      <c r="D74" t="s">
+        <v>16</v>
+      </c>
+      <c r="E74" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>125</v>
+      </c>
+      <c r="B75" t="s">
+        <v>34</v>
+      </c>
+      <c r="C75" t="s">
+        <v>135</v>
+      </c>
+      <c r="D75" t="s">
+        <v>16</v>
+      </c>
+      <c r="E75" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>125</v>
+      </c>
+      <c r="B76" t="s">
+        <v>127</v>
+      </c>
+      <c r="C76" t="s">
+        <v>136</v>
+      </c>
+      <c r="D76" t="s">
+        <v>16</v>
+      </c>
+      <c r="E76" t="s">
+        <v>143</v>
+      </c>
+      <c r="F76" t="s">
+        <v>98</v>
+      </c>
+      <c r="G76" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>125</v>
+      </c>
+      <c r="B77" t="s">
+        <v>128</v>
+      </c>
+      <c r="C77" t="s">
+        <v>137</v>
+      </c>
+      <c r="D77" t="s">
+        <v>16</v>
+      </c>
+      <c r="E77" t="s">
+        <v>143</v>
+      </c>
+      <c r="F77" t="s">
+        <v>98</v>
+      </c>
+      <c r="G77" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>125</v>
+      </c>
+      <c r="B78" t="s">
+        <v>129</v>
+      </c>
+      <c r="C78" t="s">
+        <v>138</v>
+      </c>
+      <c r="D78" t="s">
+        <v>16</v>
+      </c>
+      <c r="E78" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>125</v>
+      </c>
+      <c r="B79" t="s">
+        <v>130</v>
+      </c>
+      <c r="C79" t="s">
+        <v>139</v>
+      </c>
+      <c r="D79" t="s">
+        <v>16</v>
+      </c>
+      <c r="E79" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>125</v>
+      </c>
+      <c r="B80" t="s">
+        <v>131</v>
+      </c>
+      <c r="C80" t="s">
+        <v>140</v>
+      </c>
+      <c r="D80" t="s">
+        <v>16</v>
+      </c>
+      <c r="E80" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>125</v>
+      </c>
+      <c r="B81" t="s">
+        <v>65</v>
+      </c>
+      <c r="C81" t="s">
+        <v>141</v>
+      </c>
+      <c r="D81" t="s">
+        <v>16</v>
+      </c>
+      <c r="E81" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>125</v>
+      </c>
+      <c r="B82" t="s">
+        <v>132</v>
+      </c>
+      <c r="C82" t="s">
+        <v>142</v>
+      </c>
+      <c r="D82" t="s">
+        <v>16</v>
+      </c>
+      <c r="E82" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>125</v>
+      </c>
+      <c r="B83" t="s">
+        <v>7</v>
+      </c>
+      <c r="C83" t="s">
+        <v>13</v>
+      </c>
+      <c r="D83" t="s">
+        <v>16</v>
+      </c>
+      <c r="E83" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>144</v>
+      </c>
+      <c r="B84" t="s">
+        <v>6</v>
+      </c>
+      <c r="C84" t="s">
+        <v>12</v>
+      </c>
+      <c r="D84" t="s">
+        <v>16</v>
+      </c>
+      <c r="E84" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>144</v>
+      </c>
+      <c r="B85" t="s">
+        <v>146</v>
+      </c>
+      <c r="C85" t="s">
+        <v>148</v>
+      </c>
+      <c r="D85" t="s">
+        <v>16</v>
+      </c>
+      <c r="E85" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>144</v>
+      </c>
+      <c r="B86" t="s">
+        <v>145</v>
+      </c>
+      <c r="C86" t="s">
+        <v>149</v>
+      </c>
+      <c r="D86" t="s">
+        <v>16</v>
+      </c>
+      <c r="E86" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>144</v>
+      </c>
+      <c r="B87" t="s">
+        <v>147</v>
+      </c>
+      <c r="C87" t="s">
+        <v>150</v>
+      </c>
+      <c r="D87" t="s">
+        <v>16</v>
+      </c>
+      <c r="E87" t="s">
+        <v>124</v>
       </c>
     </row>
   </sheetData>
